--- a/data/task01/plant_matrerial_2023.xlsx
+++ b/data/task01/plant_matrerial_2023.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="продажи01" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Выгрузка</t>
+  </si>
   <si>
     <t xml:space="preserve">MATERIAL</t>
   </si>
@@ -37,10 +40,29 @@
     <t xml:space="preserve">CURRENCY</t>
   </si>
   <si>
+    <t xml:space="preserve">COMMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата</t>
+  </si>
+  <si>
     <t xml:space="preserve">0002</t>
   </si>
   <si>
     <t xml:space="preserve">RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Январские, продажи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/2/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Февральские
+Продажи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/02/2023</t>
   </si>
 </sst>
 </file>
@@ -50,11 +72,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +93,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +144,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -136,66 +190,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.1"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>333427</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>202301</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D4" s="5" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>333427</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>202302</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>200</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>6</v>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/task01/plant_matrerial_2023.xlsx
+++ b/data/task01/plant_matrerial_2023.xlsx
@@ -193,10 +193,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.1"/>
   </cols>
@@ -292,7 +292,7 @@
         <v>202302</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
